--- a/ChemicalInfo/www/temp.xlsx
+++ b/ChemicalInfo/www/temp.xlsx
@@ -23,73 +23,73 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Gallopamil</t>
   </si>
   <si>
     <t xml:space="preserve">CAS</t>
   </si>
   <si>
+    <t xml:space="preserve">16662-47-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">PubChem ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- </t>
+    <t xml:space="preserve">1234</t>
   </si>
   <si>
     <t xml:space="preserve">Formula</t>
   </si>
   <si>
-    <t xml:space="preserve">C46H77N1O17</t>
+    <t xml:space="preserve">C28H40N2O5</t>
   </si>
   <si>
     <t xml:space="preserve">Exact Mass</t>
   </si>
   <si>
-    <t xml:space="preserve">915.5192</t>
+    <t xml:space="preserve">484.2937</t>
   </si>
   <si>
     <t xml:space="preserve">Average Mass</t>
   </si>
   <si>
-    <t xml:space="preserve">916.1002</t>
+    <t xml:space="preserve">484.6274</t>
   </si>
   <si>
     <t xml:space="preserve">Smiles</t>
   </si>
   <si>
+    <t xml:space="preserve">CC(C)C(CCCN(C)CCC1=CC(=C(C=C1)OC)OC)(C#N)C2=CC(=C(C(=C2)OC)OC)OC</t>
+  </si>
+  <si>
     <t xml:space="preserve">m/z</t>
   </si>
   <si>
     <t xml:space="preserve">abundance</t>
   </si>
   <si>
-    <t xml:space="preserve">916.5264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">917.5298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">918.5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">919.5354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920.5382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649</t>
+    <t xml:space="preserve">485.3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486.3043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487.3071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488.3100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">[M+2H]2+</t>
   </si>
   <si>
-    <t xml:space="preserve">458.7669</t>
+    <t xml:space="preserve">243.1541</t>
   </si>
   <si>
     <t xml:space="preserve">[M+3H]3+</t>
   </si>
   <si>
-    <t xml:space="preserve">306.1803</t>
+    <t xml:space="preserve">162.4385</t>
   </si>
   <si>
     <t xml:space="preserve">[M+4H]4+</t>
   </si>
   <si>
-    <t xml:space="preserve">229.8871</t>
+    <t xml:space="preserve">122.0807</t>
   </si>
   <si>
     <t xml:space="preserve">[M+Na]+</t>
   </si>
   <si>
-    <t xml:space="preserve">938.5084</t>
+    <t xml:space="preserve">507.2829</t>
   </si>
   <si>
     <t xml:space="preserve">[M+K]+</t>
   </si>
   <si>
-    <t xml:space="preserve">954.4823</t>
+    <t xml:space="preserve">523.2569</t>
   </si>
   <si>
     <t xml:space="preserve">[M+NH4]+</t>
   </si>
   <si>
-    <t xml:space="preserve">933.5530</t>
+    <t xml:space="preserve">502.3275</t>
   </si>
   <si>
     <t xml:space="preserve">H2O</t>
   </si>
   <si>
-    <t xml:space="preserve">933.5292</t>
+    <t xml:space="preserve">502.3037</t>
   </si>
 </sst>
 </file>
@@ -196,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:B15" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A10:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:B14" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A10:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="m/z"/>
     <tableColumn id="2" name="abundance"/>
@@ -534,95 +534,95 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -678,12 +678,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
